--- a/Документы/kon/inf.xlsx
+++ b/Документы/kon/inf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>1.</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Необходимость создания единого шаблона для сайтов для онлайн-магазина домашних животных для привлечения новых клиентов и публикации актуальной информации о детальности организации.</t>
-  </si>
-  <si>
-    <t>создать работоспособный шаблон сайта для туристического агентства с использованием языков программирования JavaScript, языка гипертекстовой разметки HTML и формального языка описания внешнего вида документа CSS.</t>
   </si>
   <si>
     <t>1. Разработка внешнего вида сайта с помощью языка разметки гипертекста HTML и формального языка описания внешнего вида документа CSS
@@ -124,7 +121,19 @@
     <t>В результате работы над проектом был разработан шаблон сайта, который в дальнейшем можно использовать для создания сайта для любого туристического агентства.</t>
   </si>
   <si>
-    <t>Информатика</t>
+    <t>Cоздать работоспособный шаблон сайта для туристического агентства с использованием языков программирования JavaScript, языка гипертекстовой разметки HTML и формального языка описания внешнего вида документа CSS.</t>
+  </si>
+  <si>
+    <t>Cайт</t>
+  </si>
+  <si>
+    <t>Информационная деятельность Happy Pet</t>
+  </si>
+  <si>
+    <t>HTML, CSS, PHP, JavaScript, MySQL</t>
+  </si>
+  <si>
+    <t>Отсутсвие оффициального сайта у организаций в нынешнее время создает неудобтва для пользоватей ПК и ноутбуков, так как скачивание приложений занимает больше времени, чем зайти на сайт. Разработка сайта поможет решить эту проблему, пользователь сможет эфективнее пользоваться продуктом.</t>
   </si>
 </sst>
 </file>
@@ -497,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,12 +583,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,12 +605,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="135.75" x14ac:dyDescent="0.25">
@@ -609,7 +624,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="195.75" x14ac:dyDescent="0.25">
@@ -620,15 +635,18 @@
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="105.75" x14ac:dyDescent="0.25">
@@ -639,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Документы/kon/inf.xlsx
+++ b/Документы/kon/inf.xlsx
@@ -124,9 +124,6 @@
     <t>Cоздать работоспособный шаблон сайта для туристического агентства с использованием языков программирования JavaScript, языка гипертекстовой разметки HTML и формального языка описания внешнего вида документа CSS.</t>
   </si>
   <si>
-    <t>Cайт</t>
-  </si>
-  <si>
     <t>Информационная деятельность Happy Pet</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Отсутсвие оффициального сайта у организаций в нынешнее время создает неудобтва для пользоватей ПК и ноутбуков, так как скачивание приложений занимает больше времени, чем зайти на сайт. Разработка сайта поможет решить эту проблему, пользователь сможет эфективнее пользоваться продуктом.</t>
+  </si>
+  <si>
+    <t>Cайт "Happy Pet"</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165.75" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="135.75" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="105.75" x14ac:dyDescent="0.25">
